--- a/site/file/REDF_digital_literacy.xlsx
+++ b/site/file/REDF_digital_literacy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameseddy/PycharmProjects/redf_curriculum_development/redf/docs/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameseddy/PycharmProjects/redf/docs/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529447A5-5E6B-B24C-A822-805AF0CD2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E9173B-0589-1A44-BA84-322B34CD1A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27520" yWindow="220" windowWidth="54420" windowHeight="27840" xr2:uid="{68765283-6C5F-AA4B-B696-6C20DA08A4EB}"/>
+    <workbookView xWindow="85880" yWindow="220" windowWidth="35340" windowHeight="20060" xr2:uid="{68765283-6C5F-AA4B-B696-6C20DA08A4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="86">
   <si>
     <t>Computer and Device Basics</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Include</t>
-  </si>
-  <si>
-    <t>Video Sum</t>
   </si>
   <si>
     <t>Lesson Sum</t>
@@ -488,6 +485,14 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -504,14 +509,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -833,16 +830,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="25.1640625" customWidth="1"/>
@@ -863,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -878,16 +876,16 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -898,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>33</v>
@@ -910,22 +908,22 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="14" t="str">
-        <f>IF(AND(B3=1,G3="Video"),F3,"")</f>
-        <v/>
+      <c r="K3" s="14">
+        <f>IF(AND(B3=1,G3="Self-Study"),F3,"-")</f>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="L3" s="14" t="str">
-        <f>IF(AND(B3=1,G3="Lesson"),F3,"")</f>
-        <v/>
+        <f>IF(AND(B3=1,G3="Lesson"),F3,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1">
@@ -936,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>33</v>
@@ -948,7 +946,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>9</v>
@@ -957,13 +955,13 @@
         <v>16</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="14" t="str">
-        <f>IF(AND(B4=1,G4="Video"),F4,"")</f>
-        <v/>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4:K54" si="0">IF(AND(B4=1,G4="Self-Study"),F4,"-")</f>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="L4" s="14" t="str">
-        <f>IF(AND(B4=1,G4="Lesson"),F4,"")</f>
-        <v/>
+        <f t="shared" ref="L4:L54" si="1">IF(AND(B4=1,G4="Lesson"),F4,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1">
@@ -974,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>33</v>
@@ -986,7 +984,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>9</v>
@@ -995,13 +993,13 @@
         <v>17</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="14" t="str">
-        <f>IF(AND(B5=1,G5="Video"),F5,"")</f>
-        <v/>
+      <c r="K5" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="L5" s="14" t="str">
-        <f>IF(AND(B5=1,G5="Lesson"),F5,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1">
@@ -1012,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>33</v>
@@ -1024,7 +1022,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>9</v>
@@ -1033,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="14" t="str">
-        <f>IF(AND(B6=1,G6="Video"),F6,"")</f>
-        <v/>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="L6" s="14" t="str">
-        <f>IF(AND(B6=1,G6="Lesson"),F6,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1">
@@ -1050,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>33</v>
@@ -1062,7 +1060,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>9</v>
@@ -1071,13 +1069,13 @@
         <v>17</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="14" t="str">
-        <f>IF(AND(B7=1,G7="Video"),F7,"")</f>
-        <v/>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="L7" s="14" t="str">
-        <f>IF(AND(B7=1,G7="Lesson"),F7,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1">
@@ -1088,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>33</v>
@@ -1100,7 +1098,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>9</v>
@@ -1109,13 +1107,13 @@
         <v>17</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="14" t="str">
-        <f>IF(AND(B8=1,G8="Video"),F8,"")</f>
-        <v/>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="L8" s="14" t="str">
-        <f>IF(AND(B8=1,G8="Lesson"),F8,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1">
@@ -1126,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>33</v>
@@ -1138,7 +1136,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>9</v>
@@ -1147,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="14" t="str">
-        <f>IF(AND(B9=1,G9="Video"),F9,"")</f>
-        <v/>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="L9" s="14" t="str">
-        <f>IF(AND(B9=1,G9="Lesson"),F9,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1">
@@ -1164,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>33</v>
@@ -1176,7 +1174,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>9</v>
@@ -1185,13 +1183,13 @@
         <v>17</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="14" t="str">
-        <f>IF(AND(B10=1,G10="Video"),F10,"")</f>
-        <v/>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="L10" s="14" t="str">
-        <f>IF(AND(B10=1,G10="Lesson"),F10,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1">
@@ -1202,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>33</v>
@@ -1214,7 +1212,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>9</v>
@@ -1223,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="14" t="str">
-        <f>IF(AND(B11=1,G11="Video"),F11,"")</f>
-        <v/>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="L11" s="14" t="str">
-        <f>IF(AND(B11=1,G11="Lesson"),F11,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1240,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -1252,7 +1250,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>12</v>
@@ -1263,13 +1261,13 @@
       <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="14" t="str">
-        <f>IF(AND(B12=1,G12="Video"),F12,"")</f>
-        <v/>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="L12" s="14" t="str">
-        <f>IF(AND(B12=1,G12="Lesson"),F12,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1280,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1292,7 +1290,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>12</v>
@@ -1300,13 +1298,13 @@
       <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="14" t="str">
-        <f>IF(AND(B13=1,G13="Video"),F13,"")</f>
-        <v/>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="L13" s="14" t="str">
-        <f>IF(AND(B13=1,G13="Lesson"),F13,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1317,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1329,7 +1327,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>12</v>
@@ -1337,13 +1335,13 @@
       <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="14" t="str">
-        <f>IF(AND(B14=1,G14="Video"),F14,"")</f>
-        <v/>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="L14" s="14" t="str">
-        <f>IF(AND(B14=1,G14="Lesson"),F14,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1354,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1366,7 +1364,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>12</v>
@@ -1374,13 +1372,13 @@
       <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="14" t="str">
-        <f>IF(AND(B15=1,G15="Video"),F15,"")</f>
-        <v/>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="L15" s="14" t="str">
-        <f>IF(AND(B15=1,G15="Lesson"),F15,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1391,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1403,7 +1401,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>12</v>
@@ -1411,13 +1409,13 @@
       <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="14" t="str">
-        <f>IF(AND(B16=1,G16="Video"),F16,"")</f>
-        <v/>
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="L16" s="14" t="str">
-        <f>IF(AND(B16=1,G16="Lesson"),F16,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1428,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1440,7 +1438,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>12</v>
@@ -1448,13 +1446,13 @@
       <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="14" t="str">
-        <f>IF(AND(B17=1,G17="Video"),F17,"")</f>
-        <v/>
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="L17" s="14" t="str">
-        <f>IF(AND(B17=1,G17="Lesson"),F17,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1465,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1477,7 +1475,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>12</v>
@@ -1485,13 +1483,13 @@
       <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="14" t="str">
-        <f>IF(AND(B18=1,G18="Video"),F18,"")</f>
-        <v/>
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="L18" s="14" t="str">
-        <f>IF(AND(B18=1,G18="Lesson"),F18,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1502,19 +1500,19 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="15">
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>12</v>
@@ -1522,13 +1520,13 @@
       <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="14" t="str">
-        <f>IF(AND(B19=1,G19="Video"),F19,"")</f>
-        <v/>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="L19" s="14" t="str">
-        <f>IF(AND(B19=1,G19="Lesson"),F19,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1539,19 +1537,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="15">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>12</v>
@@ -1559,13 +1557,13 @@
       <c r="I20" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="14" t="str">
-        <f>IF(AND(B20=1,G20="Video"),F20,"")</f>
-        <v/>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="L20" s="14" t="str">
-        <f>IF(AND(B20=1,G20="Lesson"),F20,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1588,7 +1586,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>12</v>
@@ -1596,13 +1594,13 @@
       <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="14" t="str">
-        <f>IF(AND(B21=1,G21="Video"),F21,"")</f>
-        <v/>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="L21" s="14" t="str">
-        <f>IF(AND(B21=1,G21="Lesson"),F19,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1625,7 +1623,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>12</v>
@@ -1633,13 +1631,13 @@
       <c r="I22" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="14" t="str">
-        <f>IF(AND(B22=1,G22="Video"),F22,"")</f>
-        <v/>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="L22" s="14" t="str">
-        <f>IF(AND(B22=1,G22="Lesson"),F20,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1650,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
@@ -1662,7 +1660,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>12</v>
@@ -1670,13 +1668,13 @@
       <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="14" t="str">
-        <f>IF(AND(B23=1,G23="Video"),F23,"")</f>
-        <v/>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="L23" s="14" t="str">
-        <f>IF(AND(B23=1,G23="Lesson"),F23,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1">
@@ -1697,7 +1695,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>12</v>
@@ -1706,12 +1704,12 @@
         <v>17</v>
       </c>
       <c r="K24" s="14" t="str">
-        <f>IF(AND(B24=1,G24="Video"),F24,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L24" s="14" t="str">
-        <f>IF(AND(B24=1,G24="Lesson"),F24,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1">
@@ -1732,7 +1730,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>12</v>
@@ -1741,12 +1739,12 @@
         <v>17</v>
       </c>
       <c r="K25" s="14" t="str">
-        <f>IF(AND(B25=1,G25="Video"),F25,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L25" s="14" t="str">
-        <f>IF(AND(B25=1,G25="Lesson"),F25,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1">
@@ -1767,7 +1765,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>12</v>
@@ -1776,12 +1774,12 @@
         <v>17</v>
       </c>
       <c r="K26" s="14" t="str">
-        <f>IF(AND(B26=1,G26="Video"),F26,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L26" s="14" t="str">
-        <f>IF(AND(B26=1,G26="Lesson"),F26,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1804,7 +1802,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>12</v>
@@ -1812,13 +1810,13 @@
       <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="14" t="str">
-        <f>IF(AND(B27=1,G27="Video"),F27,"")</f>
-        <v/>
+      <c r="K27" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="L27" s="14" t="str">
-        <f>IF(AND(B27=1,G27="Lesson"),F27,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1">
@@ -1827,7 +1825,7 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -1839,7 +1837,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>12</v>
@@ -1848,12 +1846,12 @@
         <v>16</v>
       </c>
       <c r="K28" s="14" t="str">
-        <f>IF(AND(B28=1,G28="Video"),F28,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L28" s="14" t="str">
-        <f>IF(AND(B28=1,G28="Lesson"),F28,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1">
@@ -1862,7 +1860,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>25</v>
@@ -1874,7 +1872,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>12</v>
@@ -1883,12 +1881,12 @@
         <v>17</v>
       </c>
       <c r="K29" s="14" t="str">
-        <f>IF(AND(B29=1,G29="Video"),F29,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L29" s="14" t="str">
-        <f>IF(AND(B29=1,G29="Lesson"),F29,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1">
@@ -1897,7 +1895,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>25</v>
@@ -1909,7 +1907,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>12</v>
@@ -1918,12 +1916,12 @@
         <v>17</v>
       </c>
       <c r="K30" s="14" t="str">
-        <f>IF(AND(B30=1,G30="Video"),F30,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L30" s="14" t="str">
-        <f>IF(AND(B30=1,G30="Lesson"),F30,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1">
@@ -1932,7 +1930,7 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>25</v>
@@ -1944,7 +1942,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>12</v>
@@ -1953,12 +1951,12 @@
         <v>17</v>
       </c>
       <c r="K31" s="14" t="str">
-        <f>IF(AND(B31=1,G31="Video"),F31,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L31" s="14" t="str">
-        <f>IF(AND(B31=1,G31="Lesson"),F31,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1">
@@ -1967,7 +1965,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>25</v>
@@ -1979,7 +1977,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>12</v>
@@ -1988,12 +1986,12 @@
         <v>17</v>
       </c>
       <c r="K32" s="14" t="str">
-        <f>IF(AND(B32=1,G32="Video"),F32,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L32" s="14" t="str">
-        <f>IF(AND(B32=1,G32="Lesson"),F32,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1">
@@ -2002,7 +2000,7 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>25</v>
@@ -2014,7 +2012,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>12</v>
@@ -2023,12 +2021,12 @@
         <v>17</v>
       </c>
       <c r="K33" s="14" t="str">
-        <f>IF(AND(B33=1,G33="Video"),F33,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L33" s="14" t="str">
-        <f>IF(AND(B33=1,G33="Lesson"),F33,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1">
@@ -2037,7 +2035,7 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
@@ -2049,7 +2047,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>12</v>
@@ -2058,12 +2056,12 @@
         <v>16</v>
       </c>
       <c r="K34" s="14" t="str">
-        <f>IF(AND(B34=1,G34="Video"),F34,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L34" s="14" t="str">
-        <f>IF(AND(B34=1,G34="Lesson"),F34,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1">
@@ -2072,13 +2070,13 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2087,21 +2085,21 @@
         <v>44</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35" s="14" t="str">
-        <f>IF(AND(B35=1,G35="Video"),F35,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L35" s="14" t="str">
-        <f>IF(AND(B35=1,G35="Lesson"),F35,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:12" hidden="1">
@@ -2110,13 +2108,13 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2125,21 +2123,21 @@
         <v>44</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="K36" s="14" t="str">
-        <f>IF(AND(B36=1,G36="Video"),F36,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L36" s="14" t="str">
-        <f>IF(AND(B36=1,G36="Lesson"),F36,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="37" spans="1:12" hidden="1">
@@ -2148,13 +2146,13 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2163,21 +2161,21 @@
         <v>44</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
         <v>43</v>
       </c>
       <c r="K37" s="14" t="str">
-        <f>IF(AND(B37=1,G37="Video"),F37,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L37" s="14" t="str">
-        <f>IF(AND(B37=1,G37="Lesson"),F37,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1">
@@ -2186,13 +2184,13 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2201,21 +2199,21 @@
         <v>44</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
         <v>43</v>
       </c>
       <c r="K38" s="14" t="str">
-        <f>IF(AND(B38=1,G38="Video"),F38,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L38" s="14" t="str">
-        <f>IF(AND(B38=1,G38="Lesson"),F38,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="39" spans="1:12" hidden="1">
@@ -2224,13 +2222,13 @@
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2239,21 +2237,21 @@
         <v>44</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="K39" s="14" t="str">
-        <f>IF(AND(B39=1,G39="Video"),F39,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L39" s="14" t="str">
-        <f>IF(AND(B39=1,G39="Lesson"),F39,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2264,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2279,20 +2277,20 @@
         <v>44</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
         <v>43</v>
       </c>
       <c r="K40" s="14" t="str">
-        <f>IF(AND(B40=1,G40="Video"),F40,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L40" s="14">
-        <f>IF(AND(B40=1,G40="Lesson"),F40,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2302,13 +2300,13 @@
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2317,21 +2315,21 @@
         <v>44</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s">
         <v>43</v>
       </c>
       <c r="K41" s="14" t="str">
-        <f>IF(AND(B41=1,G41="Video"),F41,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L41" s="14" t="str">
-        <f>IF(AND(B41=1,G41="Lesson"),F41,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1">
@@ -2340,13 +2338,13 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2355,21 +2353,21 @@
         <v>44</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
       </c>
       <c r="K42" s="14" t="str">
-        <f>IF(AND(B42=1,G42="Video"),F42,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L42" s="14" t="str">
-        <f>IF(AND(B42=1,G42="Lesson"),F42,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2380,13 +2378,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2395,20 +2393,20 @@
         <v>44</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
         <v>43</v>
       </c>
       <c r="K43" s="14" t="str">
-        <f>IF(AND(B43=1,G43="Video"),F43,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L43" s="14">
-        <f>IF(AND(B43=1,G43="Lesson"),F43,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2420,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="15">
         <v>2.0833333333333332E-2</v>
@@ -2435,20 +2433,20 @@
         <v>44</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s">
         <v>43</v>
       </c>
       <c r="K44" s="14" t="str">
-        <f>IF(AND(B44=1,G44="Video"),F44,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L44" s="14">
-        <f>IF(AND(B44=1,G44="Lesson"),F44,"")</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -2460,13 +2458,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2475,20 +2473,20 @@
         <v>44</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="14" t="str">
-        <f>IF(AND(B45=1,G45="Video"),F45,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L45" s="14">
-        <f>IF(AND(B45=1,G45="Lesson"),F45,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2500,13 +2498,13 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2515,20 +2513,20 @@
         <v>44</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s">
         <v>43</v>
       </c>
       <c r="K46" s="14" t="str">
-        <f>IF(AND(B46=1,G46="Video"),F46,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L46" s="14">
-        <f>IF(AND(B46=1,G46="Lesson"),F46,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2540,13 +2538,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2555,20 +2553,20 @@
         <v>44</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47" s="14" t="str">
-        <f>IF(AND(B47=1,G47="Video"),F47,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L47" s="14">
-        <f>IF(AND(B47=1,G47="Lesson"),F47,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2580,13 +2578,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2595,20 +2593,20 @@
         <v>44</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s">
         <v>43</v>
       </c>
       <c r="K48" s="14" t="str">
-        <f>IF(AND(B48=1,G48="Video"),F48,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L48" s="14">
-        <f>IF(AND(B48=1,G48="Lesson"),F48,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2620,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2635,20 +2633,20 @@
         <v>44</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s">
         <v>43</v>
       </c>
       <c r="K49" s="14" t="str">
-        <f>IF(AND(B49=1,G49="Video"),F49,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L49" s="14">
-        <f>IF(AND(B49=1,G49="Lesson"),F49,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2661,10 +2659,10 @@
         <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2673,21 +2671,21 @@
         <v>44</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
         <v>43</v>
       </c>
       <c r="K50" s="14" t="str">
-        <f>IF(AND(B50=1,G50="Video"),F50,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L50" s="14" t="str">
-        <f>IF(AND(B50=1,G50="Lesson"),F50,"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2698,13 +2696,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F51" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2713,20 +2711,20 @@
         <v>44</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51" s="14" t="str">
-        <f>IF(AND(B51=1,G51="Video"),F51,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L51" s="14">
-        <f>IF(AND(B51=1,G51="Lesson"),F51,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2738,13 +2736,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2753,20 +2751,20 @@
         <v>44</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52" s="14" t="str">
-        <f>IF(AND(B52=1,G52="Video"),F52,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L52" s="14">
-        <f>IF(AND(B52=1,G52="Lesson"),F52,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2778,13 +2776,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2793,20 +2791,20 @@
         <v>44</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s">
         <v>43</v>
       </c>
       <c r="K53" s="14" t="str">
-        <f>IF(AND(B53=1,G53="Video"),F53,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L53" s="14">
-        <f>IF(AND(B53=1,G53="Lesson"),F53,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2818,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" s="15">
         <v>4.1666666666666664E-2</v>
@@ -2833,20 +2831,20 @@
         <v>44</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54" s="14" t="str">
-        <f>IF(AND(B54=1,G54="Video"),F54,"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L54" s="14">
-        <f>IF(AND(B54=1,G54="Lesson"),F54,"")</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2856,54 +2854,54 @@
     <row r="56" spans="1:12">
       <c r="H56" s="20"/>
       <c r="J56" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56" s="18">
         <f>SUM(K3:K54)</f>
-        <v>0</v>
+        <v>0.22013888888888886</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="H57" s="20"/>
       <c r="J57" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57" s="18">
         <f>SUM(L3:L54)</f>
         <v>0.47916666666666674</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="H58" s="20"/>
       <c r="J58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K58" s="22">
         <f>SUM(K56:K57)</f>
-        <v>0.47916666666666674</v>
+        <v>0.69930555555555562</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L54" xr:uid="{FA0440C8-79A3-DB46-800E-0074ED29672D}">
     <filterColumn colId="4">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3:F42 E44:F54 E43">
-    <cfRule type="expression" dxfId="1" priority="33">
+  <conditionalFormatting sqref="E3:F42 E43 E44:F54">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>B3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
       <formula>"b3=1"</formula>
     </cfRule>
   </conditionalFormatting>
